--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf16-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf16-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>Fgfr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +522,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,40 +537,40 @@
         <v>5.034312</v>
       </c>
       <c r="I2">
-        <v>0.551436927751233</v>
+        <v>0.7635196712427992</v>
       </c>
       <c r="J2">
-        <v>0.551436927751233</v>
+        <v>0.7635196712427992</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.5555316666666666</v>
+        <v>0.1817723333333333</v>
       </c>
       <c r="N2">
-        <v>1.666595</v>
+        <v>0.5453170000000001</v>
       </c>
       <c r="O2">
-        <v>0.01938483203642842</v>
+        <v>0.008966262009224884</v>
       </c>
       <c r="P2">
-        <v>0.01938483203642843</v>
+        <v>0.008966262009224884</v>
       </c>
       <c r="Q2">
-        <v>0.93223991196</v>
+        <v>0.305032879656</v>
       </c>
       <c r="R2">
-        <v>8.39015920764</v>
+        <v>2.745295916904</v>
       </c>
       <c r="S2">
-        <v>0.01068951222314177</v>
+        <v>0.006845917421560183</v>
       </c>
       <c r="T2">
-        <v>0.01068951222314177</v>
+        <v>0.006845917421560183</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +584,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,45 +599,45 @@
         <v>5.034312</v>
       </c>
       <c r="I3">
-        <v>0.551436927751233</v>
+        <v>0.7635196712427992</v>
       </c>
       <c r="J3">
-        <v>0.551436927751233</v>
+        <v>0.7635196712427992</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.1817723333333333</v>
+        <v>20.09115</v>
       </c>
       <c r="N3">
-        <v>0.5453170000000001</v>
+        <v>60.27345</v>
       </c>
       <c r="O3">
-        <v>0.006342799811357313</v>
+        <v>0.9910337379907751</v>
       </c>
       <c r="P3">
-        <v>0.006342799811357313</v>
+        <v>0.9910337379907752</v>
       </c>
       <c r="Q3">
-        <v>0.305032879656</v>
+        <v>33.7150391796</v>
       </c>
       <c r="R3">
-        <v>2.745295916904</v>
+        <v>303.4353526164</v>
       </c>
       <c r="S3">
-        <v>0.003497654041315976</v>
+        <v>0.756673753821239</v>
       </c>
       <c r="T3">
-        <v>0.003497654041315977</v>
+        <v>0.756673753821239</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -649,7 +646,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,46 +655,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.678104</v>
+        <v>0.519749</v>
       </c>
       <c r="H4">
-        <v>5.034312</v>
+        <v>1.559247</v>
       </c>
       <c r="I4">
-        <v>0.551436927751233</v>
+        <v>0.2364803287572008</v>
       </c>
       <c r="J4">
-        <v>0.551436927751233</v>
+        <v>0.2364803287572008</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>27.92075533333333</v>
+        <v>0.1817723333333333</v>
       </c>
       <c r="N4">
-        <v>83.762266</v>
+        <v>0.5453170000000001</v>
       </c>
       <c r="O4">
-        <v>0.9742723681522142</v>
+        <v>0.008966262009224884</v>
       </c>
       <c r="P4">
-        <v>0.9742723681522143</v>
+        <v>0.008966262009224884</v>
       </c>
       <c r="Q4">
-        <v>46.853931207888</v>
+        <v>0.09447598847766667</v>
       </c>
       <c r="R4">
-        <v>421.685380870992</v>
+        <v>0.8502838962990001</v>
       </c>
       <c r="S4">
-        <v>0.5372497614867752</v>
+        <v>0.0021203445876647</v>
       </c>
       <c r="T4">
-        <v>0.5372497614867753</v>
+        <v>0.0021203445876647</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +708,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,170 +717,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.365043666666667</v>
+        <v>0.519749</v>
       </c>
       <c r="H5">
-        <v>4.095131</v>
+        <v>1.559247</v>
       </c>
       <c r="I5">
-        <v>0.448563072248767</v>
+        <v>0.2364803287572008</v>
       </c>
       <c r="J5">
-        <v>0.448563072248767</v>
+        <v>0.2364803287572008</v>
       </c>
       <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.5555316666666666</v>
+        <v>20.09115</v>
       </c>
       <c r="N5">
-        <v>1.666595</v>
+        <v>60.27345</v>
       </c>
       <c r="O5">
-        <v>0.01938483203642842</v>
+        <v>0.9910337379907751</v>
       </c>
       <c r="P5">
-        <v>0.01938483203642843</v>
+        <v>0.9910337379907752</v>
       </c>
       <c r="Q5">
-        <v>0.7583249832161112</v>
+        <v>10.44235512135</v>
       </c>
       <c r="R5">
-        <v>6.824924848945001</v>
+        <v>93.98119609215</v>
       </c>
       <c r="S5">
-        <v>0.008695319813286655</v>
+        <v>0.2343599841695361</v>
       </c>
       <c r="T5">
-        <v>0.008695319813286658</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1.365043666666667</v>
-      </c>
-      <c r="H6">
-        <v>4.095131</v>
-      </c>
-      <c r="I6">
-        <v>0.448563072248767</v>
-      </c>
-      <c r="J6">
-        <v>0.448563072248767</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.1817723333333333</v>
-      </c>
-      <c r="N6">
-        <v>0.5453170000000001</v>
-      </c>
-      <c r="O6">
-        <v>0.006342799811357313</v>
-      </c>
-      <c r="P6">
-        <v>0.006342799811357313</v>
-      </c>
-      <c r="Q6">
-        <v>0.2481271723918889</v>
-      </c>
-      <c r="R6">
-        <v>2.233144551527</v>
-      </c>
-      <c r="S6">
-        <v>0.002845145770041336</v>
-      </c>
-      <c r="T6">
-        <v>0.002845145770041337</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.365043666666667</v>
-      </c>
-      <c r="H7">
-        <v>4.095131</v>
-      </c>
-      <c r="I7">
-        <v>0.448563072248767</v>
-      </c>
-      <c r="J7">
-        <v>0.448563072248767</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>27.92075533333333</v>
-      </c>
-      <c r="N7">
-        <v>83.762266</v>
-      </c>
-      <c r="O7">
-        <v>0.9742723681522142</v>
-      </c>
-      <c r="P7">
-        <v>0.9742723681522143</v>
-      </c>
-      <c r="Q7">
-        <v>38.11305023631623</v>
-      </c>
-      <c r="R7">
-        <v>343.017452126846</v>
-      </c>
-      <c r="S7">
-        <v>0.4370226066654389</v>
-      </c>
-      <c r="T7">
-        <v>0.437022606665439</v>
+        <v>0.2343599841695361</v>
       </c>
     </row>
   </sheetData>
